--- a/biology/Botanique/Pépinières_Desmartis/Pépinières_Desmartis.xlsx
+++ b/biology/Botanique/Pépinières_Desmartis/Pépinières_Desmartis.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>P%C3%A9pini%C3%A8res_Desmartis</t>
+          <t>Pépinières_Desmartis</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Pépinières Desmartis sont une entreprise française de production de plantes, basée à Bergerac, célèbre notamment pour la promotion d’arbustes décoratifs du genre Lagerstroemia.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>P%C3%A9pini%C3%A8res_Desmartis</t>
+          <t>Pépinières_Desmartis</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,13 +523,15 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">On date la fondation de l’entreprise à 1874, année où le pépiniériste Eugène Desmartis épouse mademoiselle Perdoux, elle-même issue d’une lignée de pépiniéristes opérant à Bergerac depuis le début du XIXe siècle[1]. (C’est aux Perdoux que l’on doit le Jardin Perdoux, aujourd’hui rebaptisé Parc municipal Jean-Jaurès)[2].
-Dans les années 1920, André et Jacques Desmartis, fils et petit-fils d’Eugène, s’intéressent aux arbustes du genre Lagerstroemia et commencent à en produire différentes variétés[1]. Ce « Lilas des Indes » est un arbuste asiatique, en fait originaire de Chine, à la floraison tardive très décorative, et qui présente par ailleurs l’avantage d’être non-gélif et résistant à la sécheresse et à la pollution. Il est maintenant planté comme arbre d’alignement dans de nombreuses villes de France[3]. Les variétés de « Lagerstroemia des zones tempérées » produites par Desmartis sont reconnues comme Collection nationale par le Conservatoire des collections végétales spécialisées (CCVS)[4].
-Les Pépinières Desmartis occupaient 7 hectares en 1949, elles en occupent aujourd’hui plus de 300, dont 65 hectares de cultures hors sol (en pots), 100 hectares de pépinières en pleine terre, et 100 hectares de terrain réservé à des rotations de culture[5],[6]. Elles proposent une gamme de plus de 4500 arbres et arbustes, et produisent chaque année plus de 1,7 million de plants[5].
-En 1993, les Pépinières Desmartis sont rachetées par Jardiland[7]. En 2014, Jardiland, conservant le magasin de jardinerie, revend les pépinières Desmartis aux deux principaux cadres, le directeur général Pierre Chassagne et le directeur commercial Dominique Audy[8],[9].
-En 2023, les Pépinières Desmartis se dotent d’une serre solaire de trois hectares, couverte de panneaux photovoltaïques[10].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">On date la fondation de l’entreprise à 1874, année où le pépiniériste Eugène Desmartis épouse mademoiselle Perdoux, elle-même issue d’une lignée de pépiniéristes opérant à Bergerac depuis le début du XIXe siècle. (C’est aux Perdoux que l’on doit le Jardin Perdoux, aujourd’hui rebaptisé Parc municipal Jean-Jaurès).
+Dans les années 1920, André et Jacques Desmartis, fils et petit-fils d’Eugène, s’intéressent aux arbustes du genre Lagerstroemia et commencent à en produire différentes variétés. Ce « Lilas des Indes » est un arbuste asiatique, en fait originaire de Chine, à la floraison tardive très décorative, et qui présente par ailleurs l’avantage d’être non-gélif et résistant à la sécheresse et à la pollution. Il est maintenant planté comme arbre d’alignement dans de nombreuses villes de France. Les variétés de « Lagerstroemia des zones tempérées » produites par Desmartis sont reconnues comme Collection nationale par le Conservatoire des collections végétales spécialisées (CCVS).
+Les Pépinières Desmartis occupaient 7 hectares en 1949, elles en occupent aujourd’hui plus de 300, dont 65 hectares de cultures hors sol (en pots), 100 hectares de pépinières en pleine terre, et 100 hectares de terrain réservé à des rotations de culture,. Elles proposent une gamme de plus de 4500 arbres et arbustes, et produisent chaque année plus de 1,7 million de plants.
+En 1993, les Pépinières Desmartis sont rachetées par Jardiland. En 2014, Jardiland, conservant le magasin de jardinerie, revend les pépinières Desmartis aux deux principaux cadres, le directeur général Pierre Chassagne et le directeur commercial Dominique Audy,.
+En 2023, les Pépinières Desmartis se dotent d’une serre solaire de trois hectares, couverte de panneaux photovoltaïques.
 </t>
         </is>
       </c>
